--- a/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1215488727713192</v>
+        <v>0.119809214544936</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2517220127590626</v>
+        <v>0.251281625934541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.313345123174003</v>
+        <v>0.310362092088695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1078078837511744</v>
+        <v>0.105814393665476</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2084373700410604</v>
+        <v>0.2093894840710455</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2715737044028624</v>
+        <v>0.2713792191645437</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3114191514396991</v>
+        <v>0.3105629527920002</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1484845730932325</v>
+        <v>0.1499862184106212</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1708936931889065</v>
+        <v>0.1703462904904714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2718770735098628</v>
+        <v>0.2707233261920873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3201055337837235</v>
+        <v>0.3208291843394941</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1352534158587522</v>
+        <v>0.1342110547514077</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1732970202167409</v>
+        <v>0.1764237994753734</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3208305013612116</v>
+        <v>0.3202277085730958</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3900594414429716</v>
+        <v>0.3849985527920786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1641797516956487</v>
+        <v>0.1643068648071067</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2809516691353784</v>
+        <v>0.2751161111424489</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3433721847577333</v>
+        <v>0.3398271178378323</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3811666419643178</v>
+        <v>0.3841742652205036</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1942525732866013</v>
+        <v>0.1958054633161864</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2119613732460026</v>
+        <v>0.2138337256392743</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3188167033589449</v>
+        <v>0.3203469293564354</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3716098491496166</v>
+        <v>0.3743721974043546</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1723688124338463</v>
+        <v>0.1708962507843975</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3408826796461003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1324630383891254</v>
+        <v>0.1324630383891253</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.262751463783766</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1449629557183779</v>
+        <v>0.1441351938156865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3251819470260289</v>
+        <v>0.3217230777898193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3117060833512698</v>
+        <v>0.3110430064568455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1114738989241097</v>
+        <v>0.1105185630799148</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2349551161386982</v>
+        <v>0.2338801753818335</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3278359586375235</v>
+        <v>0.3202791228398081</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3204775146782765</v>
+        <v>0.3241145906639754</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.127876061678178</v>
+        <v>0.1266691204667253</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.196415964883704</v>
+        <v>0.1954516807673453</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3335809509009303</v>
+        <v>0.3325568057005008</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3258571665330452</v>
+        <v>0.3241634955160679</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1230293848720442</v>
+        <v>0.1254137984691956</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1949315783159979</v>
+        <v>0.1930919864696655</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3871100840550303</v>
+        <v>0.38724307388093</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3727286077979731</v>
+        <v>0.3713218946187192</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1587155394566609</v>
+        <v>0.1591480667186463</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2946791547192951</v>
+        <v>0.2936883820870975</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3878862069558643</v>
+        <v>0.3856727750753595</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3846227133900249</v>
+        <v>0.3844001270562726</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1680582318026922</v>
+        <v>0.1652540138947434</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2357409453322062</v>
+        <v>0.2348668747982467</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3762426592729234</v>
+        <v>0.3779081931711283</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3685225622200188</v>
+        <v>0.3679234757442528</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1543605299861567</v>
+        <v>0.1542164959593452</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1680295423137451</v>
+        <v>0.1677680703528419</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3209444434273157</v>
+        <v>0.3145792146767185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3884183721989493</v>
+        <v>0.3848724341608021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1119386574073779</v>
+        <v>0.1125467391015414</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2711693615287402</v>
+        <v>0.2717293968688489</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3332980920084452</v>
+        <v>0.3329288025310326</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4292353687378208</v>
+        <v>0.4285522904596156</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.151108456059838</v>
+        <v>0.1492794696887969</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2287230552383037</v>
+        <v>0.2262373684053135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3356736131301926</v>
+        <v>0.3361124725578462</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4177175841432109</v>
+        <v>0.4201582860471932</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1376600371099919</v>
+        <v>0.1368351964248376</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2302540758572844</v>
+        <v>0.2316627983836577</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3919662624906788</v>
+        <v>0.3897255195251356</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4581173268655801</v>
+        <v>0.4608213728695219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1689538058925214</v>
+        <v>0.1706290084195773</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3385036352350467</v>
+        <v>0.3396020596597176</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4026169958706542</v>
+        <v>0.4024823614284229</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5025846100352813</v>
+        <v>0.5018155500319484</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2015495674260788</v>
+        <v>0.1991020821615672</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2748161240511776</v>
+        <v>0.2747465933658328</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3878809139982781</v>
+        <v>0.3871709899049661</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4694777101980893</v>
+        <v>0.4718734866569831</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1766564757713792</v>
+        <v>0.1772697163489102</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2875716663721396</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.186056714935599</v>
+        <v>0.1860567149355991</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2567581023539408</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1843510708503299</v>
+        <v>0.1831166984237132</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2052451179048466</v>
+        <v>0.2069343187436283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2225256702161278</v>
+        <v>0.2206348484653665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1424227327884312</v>
+        <v>0.1414450775281942</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2716335300571317</v>
+        <v>0.2731476439925576</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2190778070648911</v>
+        <v>0.2235298802915249</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2618186786448425</v>
+        <v>0.260176806867676</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1656350568501584</v>
+        <v>0.1666114335437592</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2369288543779602</v>
+        <v>0.2375232846569893</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2219949365746443</v>
+        <v>0.2220691751109826</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2484408993094647</v>
+        <v>0.2492890543198743</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1602486406866362</v>
+        <v>0.1588558308750501</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2380759305542353</v>
+        <v>0.2352340196078376</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2624697838414171</v>
+        <v>0.2629590285325893</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2777279330897667</v>
+        <v>0.2785108889349386</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1948728812660091</v>
+        <v>0.1908027270637412</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3298476917724741</v>
+        <v>0.331194928143153</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2748623739170895</v>
+        <v>0.2761527966901187</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3168648040820604</v>
+        <v>0.317359547415008</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2075729609471649</v>
+        <v>0.2088246151687501</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2777453442573152</v>
+        <v>0.2772503186679776</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2614554415492038</v>
+        <v>0.2600084129782029</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2897591310901347</v>
+        <v>0.2906057899415562</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1954972340522974</v>
+        <v>0.1926569016752496</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>83334</v>
+        <v>82141</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>176299</v>
+        <v>175991</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>208478</v>
+        <v>206494</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>72488</v>
+        <v>71147</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>141513</v>
+        <v>142159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>187938</v>
+        <v>187803</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>207066</v>
+        <v>206497</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>107075</v>
+        <v>108158</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>233188</v>
+        <v>232441</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>378563</v>
+        <v>376956</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>425818</v>
+        <v>426781</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>188475</v>
+        <v>187023</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>118812</v>
+        <v>120956</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>224701</v>
+        <v>224279</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>259519</v>
+        <v>256151</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>110391</v>
+        <v>110477</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>190745</v>
+        <v>186783</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>237625</v>
+        <v>235171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>253442</v>
+        <v>255442</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>140079</v>
+        <v>141199</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>289226</v>
+        <v>291781</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>443922</v>
+        <v>446052</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>494331</v>
+        <v>498006</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>240195</v>
+        <v>238143</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>137342</v>
+        <v>136558</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>329587</v>
+        <v>326081</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>316233</v>
+        <v>315560</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>115525</v>
+        <v>114535</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>223268</v>
+        <v>222247</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>335633</v>
+        <v>327896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>331743</v>
+        <v>335508</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>135936</v>
+        <v>134653</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>372736</v>
+        <v>370907</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>679614</v>
+        <v>677527</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>667901</v>
+        <v>664429</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>258284</v>
+        <v>263290</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>184684</v>
+        <v>182941</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>392354</v>
+        <v>392489</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>378142</v>
+        <v>376715</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>164483</v>
+        <v>164932</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>280022</v>
+        <v>279080</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>397111</v>
+        <v>394845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>398143</v>
+        <v>397912</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>178651</v>
+        <v>175670</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>447363</v>
+        <v>445704</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>766530</v>
+        <v>769923</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>755351</v>
+        <v>754123</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>324060</v>
+        <v>323757</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>112859</v>
+        <v>112683</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>241900</v>
+        <v>237103</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>293271</v>
+        <v>290593</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>88904</v>
+        <v>89387</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>181409</v>
+        <v>181784</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>258308</v>
+        <v>258022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>336498</v>
+        <v>335962</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>121705</v>
+        <v>120232</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>306638</v>
+        <v>303305</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>513151</v>
+        <v>513822</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>642861</v>
+        <v>646617</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>220207</v>
+        <v>218887</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>154653</v>
+        <v>155599</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>295430</v>
+        <v>293742</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>345896</v>
+        <v>347938</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>134187</v>
+        <v>135518</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>226455</v>
+        <v>227190</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>312031</v>
+        <v>311926</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>394000</v>
+        <v>393397</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>162332</v>
+        <v>160360</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>368432</v>
+        <v>368339</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>592961</v>
+        <v>591876</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>722519</v>
+        <v>726206</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>282587</v>
+        <v>283568</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>170734</v>
+        <v>169591</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>193241</v>
+        <v>194832</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>207481</v>
+        <v>205718</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>139338</v>
+        <v>138381</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>276197</v>
+        <v>277736</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>230448</v>
+        <v>235131</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>273020</v>
+        <v>271308</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>183499</v>
+        <v>184581</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>460337</v>
+        <v>461492</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>442528</v>
+        <v>442676</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>490714</v>
+        <v>492389</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>334309</v>
+        <v>331404</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>220491</v>
+        <v>217859</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>247119</v>
+        <v>247580</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>258951</v>
+        <v>259681</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>190652</v>
+        <v>186670</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>335389</v>
+        <v>336759</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>289128</v>
+        <v>290485</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>330421</v>
+        <v>330937</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>229960</v>
+        <v>231347</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>539641</v>
+        <v>538679</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>521189</v>
+        <v>518305</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>572324</v>
+        <v>573997</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>407845</v>
+        <v>401919</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
     </row>
     <row r="24">
